--- a/sandbox/report.xlsx
+++ b/sandbox/report.xlsx
@@ -14,18 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
   <si>
     <t>UNIVERSITY OF TURBAT</t>
   </si>
   <si>
-    <t>Course: EL603</t>
+    <t>Course: MT-101</t>
   </si>
   <si>
     <t>		</t>
   </si>
   <si>
-    <t>Date: 15-11-2018</t>
+    <t>Date: 16-11-2018</t>
   </si>
   <si>
     <t>S.no</t>
@@ -43,13 +43,22 @@
     <t>Total</t>
   </si>
   <si>
-    <t>000000000</t>
-  </si>
-  <si>
-    <t>Person1</t>
+    <t>000000001</t>
+  </si>
+  <si>
+    <t>Ahmed Haider</t>
   </si>
   <si>
     <t>L</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>000000004</t>
+  </si>
+  <si>
+    <t>Baloch2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +464,7 @@
   <sheetPr>
     <tabColor rgb="FFC0000"/>
   </sheetPr>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -581,7 +590,45 @@
       <c r="D7" t="s">
         <v>11</v>
       </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
       <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8">
         <v>0</v>
       </c>
     </row>

--- a/sandbox/report.xlsx
+++ b/sandbox/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>UNIVERSITY OF TURBAT</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>L</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>000000004</t>
@@ -590,18 +587,6 @@
       <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
       <c r="R7">
         <v>0</v>
       </c>
@@ -611,22 +596,13 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
       </c>
       <c r="R8">
         <v>0</v>
